--- a/Taskbasierte Schätzung.xlsx
+++ b/Taskbasierte Schätzung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Schätzungsverfahren:  Taskschätzung</t>
   </si>
@@ -124,18 +124,12 @@
     <t>Gegner Design</t>
   </si>
   <si>
-    <t>Waffen Design</t>
-  </si>
-  <si>
     <t>UIDesign</t>
   </si>
   <si>
     <t>Gegner Animation</t>
   </si>
   <si>
-    <t>Waffen Animation</t>
-  </si>
-  <si>
     <t>Sound Implementierung</t>
   </si>
   <si>
@@ -263,13 +257,22 @@
   </si>
   <si>
     <t>Mini-Monster-Fabriken</t>
+  </si>
+  <si>
+    <t>Player Design</t>
+  </si>
+  <si>
+    <t>Spieler Animation</t>
+  </si>
+  <si>
+    <t>Ridvan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,25 +282,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -305,19 +314,19 @@
       <b/>
       <u/>
       <sz val="18"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,19 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,34 +376,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -690,10 +707,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="K2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18">
@@ -701,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,6 +734,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="8">
+        <f>AVERAGE(K6:L6)</f>
         <v>20</v>
       </c>
       <c r="K6" s="6">
@@ -728,6 +749,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="8">
+        <f>AVERAGE(K7:L7)</f>
         <v>6</v>
       </c>
       <c r="K7" s="6">
@@ -744,10 +766,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="8">
-        <f>AVERAGE(K10:L10)</f>
+        <f t="shared" ref="J10:J25" si="0">AVERAGE(K10:L10)</f>
         <v>80</v>
       </c>
       <c r="K10" s="9">
@@ -763,6 +785,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K11" s="6">
@@ -776,15 +799,16 @@
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:14">
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K13" s="6">
@@ -796,66 +820,70 @@
     </row>
     <row r="14" spans="1:14">
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" s="8">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K14" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L14" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14">
       <c r="D15" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="8">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K15" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L15" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16" s="8">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K16" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L16" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="J17" s="8"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="3:12">
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="3:12">
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K19" s="6">
@@ -867,36 +895,38 @@
     </row>
     <row r="20" spans="3:12">
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" s="8">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K20" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="J21" s="8"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="3:12">
       <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K23" s="6">
@@ -911,13 +941,14 @@
         <v>23</v>
       </c>
       <c r="J24" s="8">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K24" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L24" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:12">
@@ -925,13 +956,14 @@
         <v>24</v>
       </c>
       <c r="J25" s="8">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K25" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L25" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:12">
@@ -939,14 +971,14 @@
         <v>25</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ref="J26:J29" si="0">AVERAGE(K26:L26)</f>
-        <v>5</v>
+        <f>AVERAGE(K26:L26)</f>
+        <v>7</v>
       </c>
       <c r="K26" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L26" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="3:12">
@@ -954,22 +986,22 @@
         <v>26</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>AVERAGE(K27:L27)</f>
+        <v>7</v>
       </c>
       <c r="K27" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L27" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K28:L28)</f>
         <v>7.5</v>
       </c>
       <c r="K28" s="6">
@@ -981,10 +1013,10 @@
     </row>
     <row r="29" spans="3:12">
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K29:L29)</f>
         <v>9</v>
       </c>
       <c r="K29" s="6">
@@ -996,19 +1028,19 @@
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="D32" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J32" s="8">
         <f>AVERAGE(K32:L32)</f>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="K32" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L32" s="5">
         <v>15</v>
@@ -1016,14 +1048,14 @@
     </row>
     <row r="33" spans="3:14">
       <c r="D33" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J33" s="8">
         <f>AVERAGE(K33:L33)</f>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="K33" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L33" s="5">
         <v>15</v>
@@ -1040,13 +1072,13 @@
       </c>
       <c r="J36" s="8">
         <f>AVERAGE(K36:L36)</f>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="K36" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L36" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="3:14">
@@ -1055,13 +1087,13 @@
       </c>
       <c r="J37" s="8">
         <f>AVERAGE(K37:L37)</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="K37" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L37" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="3:14">
@@ -1070,28 +1102,28 @@
       </c>
       <c r="J38" s="8">
         <f>AVERAGE(K38:L38)</f>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="K38" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L38" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="3:14">
       <c r="D39" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J39" s="8">
         <f>AVERAGE(K39:L39)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K39" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L39" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="3:14">
@@ -1104,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42:J44" si="1">AVERAGE(K42:L42)</f>
+        <f>AVERAGE(K42:L42)</f>
         <v>14</v>
       </c>
       <c r="K42" s="6">
@@ -1119,7 +1151,7 @@
         <v>33</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(K43:L43)</f>
         <v>4.5</v>
       </c>
       <c r="K43" s="6">
@@ -1131,10 +1163,10 @@
     </row>
     <row r="44" spans="3:14">
       <c r="D44" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(K44:L44)</f>
         <v>8</v>
       </c>
       <c r="K44" s="6">
@@ -1149,7 +1181,7 @@
         <v>21</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" ref="J47:J50" si="2">AVERAGE(K47:L47)</f>
+        <f>AVERAGE(K47:L47)</f>
         <v>14</v>
       </c>
       <c r="K47" s="6">
@@ -1161,26 +1193,26 @@
     </row>
     <row r="48" spans="3:14">
       <c r="C48" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>AVERAGE(K48:L48)</f>
+        <v>5</v>
       </c>
       <c r="K48" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L48" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:13">
       <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(K49:L49)</f>
         <v>27.5</v>
       </c>
       <c r="K49" s="6">
@@ -1190,49 +1222,49 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:13">
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="8">
-        <f t="shared" si="2"/>
-        <v>10.5</v>
+        <f>AVERAGE(K50:L50)</f>
+        <v>12.5</v>
       </c>
       <c r="K50" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L50" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="52" spans="2:12" ht="15.75" customHeight="1">
+    <row r="51" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="52" spans="2:13" ht="15.75" customHeight="1">
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J52" s="8">
         <f>AVERAGE(K52:L52)</f>
+        <v>7</v>
+      </c>
+      <c r="K52" s="6">
         <v>6</v>
       </c>
-      <c r="K52" s="6">
-        <v>4</v>
-      </c>
       <c r="L52" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="55" spans="2:12">
+    <row r="53" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:13">
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:13">
       <c r="C56" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J56" s="8">
-        <f t="shared" ref="J56:J58" si="3">AVERAGE(K56:L56)</f>
+        <f>AVERAGE(K56:L56)</f>
         <v>65</v>
       </c>
       <c r="K56" s="6">
@@ -1242,12 +1274,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:13">
       <c r="C57" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J57" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K57:L57)</f>
         <v>11</v>
       </c>
       <c r="K57" s="6">
@@ -1257,12 +1289,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:13">
       <c r="C58" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J58" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K58:L58)</f>
         <v>14</v>
       </c>
       <c r="K58" s="6">
@@ -1272,18 +1304,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="2:13">
+      <c r="B62" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:13">
       <c r="C63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J63" s="8">
-        <f t="shared" ref="J63:J69" si="4">AVERAGE(K63:L63)</f>
-        <v>27.5</v>
+        <f>AVERAGE(K63:M63)</f>
+        <v>26.666666666666668</v>
       </c>
       <c r="K63" s="6">
         <v>30</v>
@@ -1291,14 +1323,17 @@
       <c r="L63" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="2:12">
+      <c r="M63" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="C64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J64" s="8">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
+        <f t="shared" ref="J64:J69" si="1">AVERAGE(K64:M64)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="K64" s="6">
         <v>10</v>
@@ -1306,14 +1341,17 @@
       <c r="L64" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="2:12">
+      <c r="M64" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="K65" s="6">
         <v>8</v>
@@ -1321,14 +1359,17 @@
       <c r="L65" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="2:12">
+      <c r="M65" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J66" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K66" s="6">
         <v>4</v>
@@ -1336,14 +1377,17 @@
       <c r="L66" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12">
+      <c r="M66" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="C67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
       </c>
       <c r="K67" s="6">
         <v>4</v>
@@ -1351,14 +1395,17 @@
       <c r="L67" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:12">
+      <c r="M67" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J68" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="K68" s="6">
         <v>12</v>
@@ -1366,14 +1413,17 @@
       <c r="L68" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="2:12">
+      <c r="M68" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="C69" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="K69" s="6">
         <v>12</v>
@@ -1381,18 +1431,21 @@
       <c r="L69" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="2:12">
+      <c r="M69" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:13">
       <c r="C72" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J72" s="8">
-        <f t="shared" ref="J72:J73" si="5">AVERAGE(K72:L72)</f>
+        <f>AVERAGE(K72:L72)</f>
         <v>2.5</v>
       </c>
       <c r="K72" s="6">
@@ -1402,12 +1455,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:13">
       <c r="C73" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(K73:L73)</f>
         <v>11</v>
       </c>
       <c r="K73" s="6">
@@ -1417,17 +1470,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:13">
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:13">
       <c r="C76" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" ref="J76:J79" si="6">AVERAGE(K76:L76)</f>
+        <f>AVERAGE(K76:L76)</f>
         <v>25</v>
       </c>
       <c r="K76" s="6">
@@ -1437,12 +1490,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:13">
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(K77:L77)</f>
         <v>10</v>
       </c>
       <c r="K77" s="6">
@@ -1452,12 +1505,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:13">
       <c r="C78" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J78" s="8">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(K78:L78)</f>
         <v>2.5</v>
       </c>
       <c r="K78" s="6">
@@ -1467,12 +1520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:13">
       <c r="C79" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(K79:L79)</f>
         <v>4</v>
       </c>
       <c r="K79" s="6">
@@ -1489,10 +1542,10 @@
     </row>
     <row r="82" spans="2:12">
       <c r="C82" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J82" s="8">
-        <f t="shared" ref="J82:J85" si="7">AVERAGE(K82:L82)</f>
+        <f>AVERAGE(K82:L82)</f>
         <v>10</v>
       </c>
       <c r="K82" s="6">
@@ -1504,10 +1557,10 @@
     </row>
     <row r="83" spans="2:12">
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J83" s="8">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(K83:L83)</f>
         <v>3</v>
       </c>
       <c r="K83" s="6">
@@ -1519,10 +1572,10 @@
     </row>
     <row r="84" spans="2:12">
       <c r="C84" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J84" s="8">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(K84:L84)</f>
         <v>21</v>
       </c>
       <c r="K84" s="6">
@@ -1534,10 +1587,10 @@
     </row>
     <row r="85" spans="2:12">
       <c r="C85" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J85" s="8">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(K85:L85)</f>
         <v>15</v>
       </c>
       <c r="K85" s="6">
@@ -1554,10 +1607,10 @@
     </row>
     <row r="88" spans="2:12">
       <c r="C88" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J88" s="8">
-        <f t="shared" ref="J88:J90" si="8">AVERAGE(K88:L88)</f>
+        <f>AVERAGE(K88:L88)</f>
         <v>55</v>
       </c>
       <c r="K88" s="6">
@@ -1569,10 +1622,10 @@
     </row>
     <row r="89" spans="2:12">
       <c r="C89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J89" s="8">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(K89:L89)</f>
         <v>3.5</v>
       </c>
       <c r="K89" s="6">
@@ -1584,10 +1637,10 @@
     </row>
     <row r="90" spans="2:12">
       <c r="C90" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J90" s="8">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(K90:L90)</f>
         <v>1</v>
       </c>
       <c r="K90" s="6">
@@ -1604,7 +1657,7 @@
     </row>
     <row r="93" spans="2:12">
       <c r="C93" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J93" s="8">
         <f>AVERAGE(K93:L93)</f>
@@ -1624,10 +1677,10 @@
     </row>
     <row r="96" spans="2:12">
       <c r="C96" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J96" s="8">
-        <f t="shared" ref="J96:J99" si="9">AVERAGE(K96:L96)</f>
+        <f>AVERAGE(K96:L96)</f>
         <v>280</v>
       </c>
       <c r="K96" s="6">
@@ -1640,10 +1693,10 @@
     </row>
     <row r="97" spans="3:12">
       <c r="C97" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J97" s="8">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(K97:L97)</f>
         <v>110</v>
       </c>
       <c r="K97" s="6">
@@ -1656,10 +1709,10 @@
     </row>
     <row r="98" spans="3:12">
       <c r="C98" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J98" s="8">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(K98:L98)</f>
         <v>110</v>
       </c>
       <c r="K98" s="6">
@@ -1672,10 +1725,10 @@
     </row>
     <row r="99" spans="3:12">
       <c r="C99" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J99" s="8">
-        <f t="shared" si="9"/>
+        <f>AVERAGE(K99:L99)</f>
         <v>70</v>
       </c>
       <c r="K99" s="6">
@@ -1688,32 +1741,33 @@
     </row>
     <row r="102" spans="3:12" s="3" customFormat="1" ht="18">
       <c r="C102" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J102" s="3">
         <f>SUM(J6:J100)</f>
-        <v>1254.5</v>
+        <v>1307.1666666666665</v>
       </c>
     </row>
     <row r="103" spans="3:12" s="3" customFormat="1" ht="18">
       <c r="C103" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J103" s="3">
         <f>J102*0.1</f>
-        <v>125.45</v>
+        <v>130.71666666666667</v>
       </c>
     </row>
     <row r="104" spans="3:12" s="3" customFormat="1" ht="18">
       <c r="C104" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J104" s="3">
         <f>J102+J103</f>
-        <v>1379.95</v>
+        <v>1437.8833333333332</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
